--- a/medicine/Œil et vue/Optomed/Optomed.xlsx
+++ b/medicine/Œil et vue/Optomed/Optomed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Optomed Oyj est une société de technologies médicale basée à Oulu en Finlande. 
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Optomed  est une société finlandaise de technologie de la santé qui développe et commercialise des rétinographes portables qui peuvent être utilisés pour diagnostiquer et surveiller diverses maladies oculaires. 
-Optomed possède également une entreprise de logiciels[3].  
-La négociation des actions de la société a commencé  à la Bourse d'Helsinki le 5 décembre 2019[4]. 
+Optomed possède également une entreprise de logiciels.  
+La négociation des actions de la société a commencé  à la Bourse d'Helsinki le 5 décembre 2019. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 29 février 2020, les 10 plus grands actionnaires d'Optomed sont[5]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 29 février 2020, les 10 plus grands actionnaires d'Optomed sont:
 </t>
         </is>
       </c>
